--- a/sales_report.xlsx
+++ b/sales_report.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -436,93 +436,36 @@
       </c>
     </row>
     <row r="2">
-      <c r="C2" t="str">
-        <v>65dde0678b7f6312e76a2212</v>
-      </c>
       <c r="D2">
-        <v>22333</v>
+        <v>2488</v>
       </c>
       <c r="F2" t="str">
         <v>razorpay</v>
       </c>
       <c r="H2" s="1">
-        <v>45349.784000451386</v>
+        <v>45356.71741020833</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="C3" t="str">
-        <v>65dde0678b7f6312e76a2212</v>
-      </c>
       <c r="D3">
-        <v>22333</v>
+        <v>1488</v>
       </c>
       <c r="F3" t="str">
         <v>razorpay</v>
       </c>
       <c r="H3" s="1">
-        <v>45349.784000451386</v>
+        <v>45356.698935243054</v>
       </c>
       <c r="I3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="C4" t="str">
-        <v>65dde0678b7f6312e76a2212</v>
-      </c>
-      <c r="D4">
-        <v>22333</v>
-      </c>
-      <c r="F4" t="str">
-        <v>razorpay</v>
-      </c>
-      <c r="H4" s="1">
-        <v>45349.784000451386</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="C5" t="str">
-        <v>65d6d9b6b90ef361ec2eb6b0</v>
-      </c>
-      <c r="D5">
-        <v>12000</v>
-      </c>
-      <c r="F5" t="str">
-        <v>razorpay</v>
-      </c>
-      <c r="H5" s="1">
-        <v>45349.033904780095</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="C6" t="str">
-        <v>65d6d9b6b90ef361ec2eb6b0</v>
-      </c>
-      <c r="D6">
-        <v>16000</v>
-      </c>
-      <c r="F6" t="str">
-        <v>razorpay</v>
-      </c>
-      <c r="H6" s="1">
-        <v>45349.02620123843</v>
-      </c>
-      <c r="I6">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/sales_report.xlsx
+++ b/sales_report.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -437,13 +437,13 @@
     </row>
     <row r="2">
       <c r="D2">
-        <v>2488</v>
+        <v>17000</v>
       </c>
       <c r="F2" t="str">
         <v>razorpay</v>
       </c>
       <c r="H2" s="1">
-        <v>45356.71741020833</v>
+        <v>45365.38835579861</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,21 +451,35 @@
     </row>
     <row r="3">
       <c r="D3">
-        <v>1488</v>
+        <v>15000</v>
       </c>
       <c r="F3" t="str">
         <v>razorpay</v>
       </c>
       <c r="H3" s="1">
-        <v>45356.698935243054</v>
+        <v>45365.38651094907</v>
       </c>
       <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="D4">
+        <v>17000</v>
+      </c>
+      <c r="F4" t="str">
+        <v>razorpay</v>
+      </c>
+      <c r="H4" s="1">
+        <v>45365.28255633102</v>
+      </c>
+      <c r="I4">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J4"/>
   </ignoredErrors>
 </worksheet>
 </file>